--- a/E5-Tableau de synthese.xlsx
+++ b/E5-Tableau de synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF989E56-480E-422C-9C34-39DE27072FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F2818-E650-4F80-9823-6BE58EFCAFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>SESSION 2025</t>
   </si>
   <si>
-    <t>Développement d'un tableau de médecin contenant leur informations et domaine de soins + Base de donnée afin de pouvoir en ajouté et supprimer dans le site.</t>
-  </si>
-  <si>
     <t>Adresse URL du portfolio : montajabmarouf.xyz</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>15/06/2024 au 21/06/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Développement d'un site de réservation pour match de foot. </t>
-  </si>
-  <si>
     <t>Refonte entière du site de l'entreprise en code HTML, CSS et PHP</t>
   </si>
   <si>
@@ -205,13 +199,19 @@
     <t>03/12/2024 au 22/12/2024</t>
   </si>
   <si>
-    <t>Intérruption du développement et révision du cahier des charges menant à recommencer le développement du site</t>
-  </si>
-  <si>
     <t>23/12/2024 au 13/01/2025</t>
   </si>
   <si>
     <t>Développement d'un site de vente de livre (BOOKHOUSE) avec compte client et vendeur. Conception d'un panier et d'un chat pour permettre communication entre l'acheteur et le vendeur</t>
+  </si>
+  <si>
+    <t>Développement d'un tableau de médecin contenant leur informations et domaine de soins + Base de donnée afin de pouvoir en ajouter, supprimer ou modifier dans le site.</t>
+  </si>
+  <si>
+    <t>Intérruption du développement et révision du cahier des charges menant à recommencer le développement du site avec WordPress</t>
+  </si>
+  <si>
+    <t>Développement d'un site de réservation pour match de foot. (Non aboutit)</t>
   </si>
 </sst>
 </file>
@@ -740,6 +740,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,12 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1122,8 +1122,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1136,83 +1136,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="40"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="A4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1235,8 +1235,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1292,16 +1292,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1340,20 +1340,20 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1393,20 +1393,20 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1446,24 +1446,24 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="17"/>
@@ -1511,10 +1511,10 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1554,23 +1554,23 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13"/>
@@ -1611,26 +1611,26 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="C15" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1859,16 +1859,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1907,20 +1907,20 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -1962,26 +1962,26 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -2021,21 +2021,21 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22"/>
@@ -2076,22 +2076,22 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -2265,16 +2265,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2313,22 +2313,22 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -2368,21 +2368,21 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29"/>
@@ -2423,20 +2423,20 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -2612,12 +2612,12 @@
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
